--- a/imgsolver/model_trainer/model_metric_logs/paren_class_v42024-10-30.model.keras_metrics.xlsx
+++ b/imgsolver/model_trainer/model_metric_logs/paren_class_v42024-10-30.model.keras_metrics.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001192995579913259</v>
+        <v>0.0001985081908060238</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998888969421387</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -513,13 +513,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9997777777777778</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999888876541838</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997778271495223</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998889012331963</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998888888888889</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9998888888888889</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998888888888889</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998889135747612</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9998888888888888</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998888888875171</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998889135747611</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9998888888888889</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998888888875171</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4499</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
